--- a/VytrackTestUsers.xlsx
+++ b/VytrackTestUsers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marufjon/IdeaProjects/va-spring-2019-selenium-testng/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\krizb\IdeaProjects\Fall2019Selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDDC9C1-934F-044B-80DB-58DA20C1AFF6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12C79FE5-5296-400B-BD27-A8F9DE0C90E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41120" yWindow="1540" windowWidth="33600" windowHeight="18920" activeTab="5" xr2:uid="{506372D9-39D2-EA47-AA3D-ABD5428ED2AB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="5" xr2:uid="{506372D9-39D2-EA47-AA3D-ABD5428ED2AB}"/>
   </bookViews>
   <sheets>
     <sheet name="QA1-all" sheetId="4" r:id="rId1"/>
@@ -18,11 +18,11 @@
     <sheet name="QA2-all" sheetId="6" r:id="rId3"/>
     <sheet name="QA2-short" sheetId="3" r:id="rId4"/>
     <sheet name="QA3-all" sheetId="1" r:id="rId5"/>
-    <sheet name="QA3-short" sheetId="7" r:id="rId6"/>
+    <sheet name="QA3-short" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3911" uniqueCount="1478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3941" uniqueCount="1480">
   <si>
     <t>username</t>
   </si>
@@ -4470,12 +4470,19 @@
   </si>
   <si>
     <t>n/a</t>
+  </si>
+  <si>
+    <t>PASSED</t>
+  </si>
+  <si>
+    <t>SKIPPED</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -4485,12 +4492,32 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <bgColor indexed="11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor indexed="2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="gray0625">
+        <bgColor indexed="2"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4505,8 +4532,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4827,13 +4869,13 @@
       <selection activeCell="A231" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.69921875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4847,7 +4889,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4861,7 +4903,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -4875,7 +4917,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -4889,7 +4931,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -4903,7 +4945,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -4917,7 +4959,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -4931,7 +4973,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -4945,7 +4987,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -4959,7 +5001,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -4973,7 +5015,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -4987,7 +5029,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -5001,7 +5043,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -5015,7 +5057,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -5029,7 +5071,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -5043,7 +5085,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -5057,7 +5099,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -5071,7 +5113,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -5085,7 +5127,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -5099,7 +5141,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -5113,7 +5155,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -5127,7 +5169,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -5141,7 +5183,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -5155,7 +5197,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -5169,7 +5211,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -5183,7 +5225,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -5197,7 +5239,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -5211,7 +5253,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -5225,7 +5267,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -5239,7 +5281,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -5253,7 +5295,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -5267,7 +5309,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -5281,7 +5323,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -5295,7 +5337,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -5309,7 +5351,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -5323,7 +5365,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5337,7 +5379,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -5351,7 +5393,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -5365,7 +5407,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -5379,7 +5421,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -5393,7 +5435,7 @@
         <v>852</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -5407,7 +5449,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -5421,7 +5463,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -5435,7 +5477,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -5449,7 +5491,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -5463,7 +5505,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -5477,7 +5519,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -5491,7 +5533,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -5505,7 +5547,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -5519,7 +5561,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -5533,7 +5575,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -5547,7 +5589,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -5561,7 +5603,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -5575,7 +5617,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5589,7 +5631,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -5603,7 +5645,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -5617,7 +5659,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -5631,7 +5673,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -5645,7 +5687,7 @@
         <v>877</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -5659,7 +5701,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -5673,7 +5715,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -5687,7 +5729,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -5701,7 +5743,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -5715,7 +5757,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -5729,7 +5771,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -5743,7 +5785,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -5757,7 +5799,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -5771,7 +5813,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -5785,7 +5827,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -5799,7 +5841,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -5813,7 +5855,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -5827,7 +5869,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -5841,7 +5883,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -5855,7 +5897,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -5869,7 +5911,7 @@
         <v>899</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -5883,7 +5925,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -5897,7 +5939,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -5911,7 +5953,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -5925,7 +5967,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -5939,7 +5981,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -5953,7 +5995,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -5967,7 +6009,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -5981,7 +6023,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -5995,7 +6037,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -6009,7 +6051,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -6023,7 +6065,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -6037,7 +6079,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -6051,7 +6093,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -6065,7 +6107,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -6079,7 +6121,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -6093,7 +6135,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -6107,7 +6149,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -6121,7 +6163,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -6135,7 +6177,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -6149,7 +6191,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -6163,7 +6205,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -6177,7 +6219,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -6191,7 +6233,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -6205,7 +6247,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -6219,7 +6261,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -6233,7 +6275,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -6247,7 +6289,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -6261,7 +6303,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -6275,7 +6317,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -6289,7 +6331,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -6303,7 +6345,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -6317,7 +6359,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -6331,7 +6373,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -6345,7 +6387,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -6359,7 +6401,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -6373,7 +6415,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -6387,7 +6429,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -6401,7 +6443,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -6415,7 +6457,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -6429,7 +6471,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -6443,7 +6485,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -6457,7 +6499,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -6471,7 +6513,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -6485,7 +6527,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -6499,7 +6541,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -6513,7 +6555,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -6527,7 +6569,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -6541,7 +6583,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -6555,7 +6597,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -6569,7 +6611,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -6583,7 +6625,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -6597,7 +6639,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -6611,7 +6653,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -6625,7 +6667,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -6639,7 +6681,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -6653,7 +6695,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -6667,7 +6709,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -6681,7 +6723,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -6695,7 +6737,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -6709,7 +6751,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -6723,7 +6765,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -6737,7 +6779,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -6751,7 +6793,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -6765,7 +6807,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -6779,7 +6821,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -6793,7 +6835,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -6807,7 +6849,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -6821,7 +6863,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -6835,7 +6877,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -6849,7 +6891,7 @@
         <v>849</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -6863,7 +6905,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -6877,7 +6919,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -6891,7 +6933,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -6905,7 +6947,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -6919,7 +6961,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -6933,7 +6975,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -6947,7 +6989,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -6961,7 +7003,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -6975,7 +7017,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -6989,7 +7031,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -7003,7 +7045,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -7017,7 +7059,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -7031,7 +7073,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -7045,7 +7087,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -7059,7 +7101,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -7073,7 +7115,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -7087,7 +7129,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -7101,7 +7143,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -7115,7 +7157,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -7129,7 +7171,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -7143,7 +7185,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -7157,7 +7199,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -7171,7 +7213,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -7185,7 +7227,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -7199,7 +7241,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -7213,7 +7255,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -7227,7 +7269,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -7241,7 +7283,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -7255,7 +7297,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -7269,7 +7311,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -7283,7 +7325,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -7297,7 +7339,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -7311,7 +7353,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -7325,7 +7367,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -7339,7 +7381,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -7353,7 +7395,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -7367,7 +7409,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -7381,7 +7423,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -7395,7 +7437,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -7409,7 +7451,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -7423,7 +7465,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -7437,7 +7479,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -7451,7 +7493,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -7465,7 +7507,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -7479,7 +7521,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -7493,7 +7535,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -7507,7 +7549,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -7521,7 +7563,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -7535,7 +7577,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -7549,7 +7591,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -7563,7 +7605,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -7577,7 +7619,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -7591,7 +7633,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -7605,7 +7647,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -7619,7 +7661,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -7633,7 +7675,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -7647,7 +7689,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -7661,7 +7703,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -7675,7 +7717,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -7689,7 +7731,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -7703,7 +7745,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -7717,7 +7759,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -7731,7 +7773,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -7745,7 +7787,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -7759,7 +7801,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -7773,7 +7815,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -7787,7 +7829,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -7801,7 +7843,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -7815,7 +7857,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -7829,7 +7871,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -7843,7 +7885,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -7857,7 +7899,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -7871,7 +7913,7 @@
         <v>822</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -7885,7 +7927,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -7899,7 +7941,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -7913,7 +7955,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -7927,7 +7969,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -7941,7 +7983,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -7955,7 +7997,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -7969,7 +8011,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -7983,7 +8025,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -7997,7 +8039,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -8011,7 +8053,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -8025,7 +8067,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -8039,7 +8081,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -8053,7 +8095,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -8067,7 +8109,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -8081,7 +8123,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -8095,7 +8137,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -8109,7 +8151,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -8123,7 +8165,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -8137,7 +8179,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -8151,7 +8193,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -8165,7 +8207,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -8179,7 +8221,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -8193,7 +8235,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -8207,7 +8249,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -8221,7 +8263,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -8235,7 +8277,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -8249,7 +8291,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -8263,7 +8305,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -8277,7 +8319,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -8291,7 +8333,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -8305,7 +8347,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -8319,7 +8361,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -8333,7 +8375,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -8347,7 +8389,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -8361,7 +8403,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -8375,7 +8417,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -8389,7 +8431,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -8403,7 +8445,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -8417,7 +8459,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -8431,7 +8473,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -8445,7 +8487,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -8459,7 +8501,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -8473,7 +8515,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -8487,7 +8529,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -8501,7 +8543,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -8515,7 +8557,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -8529,7 +8571,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -8543,7 +8585,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -8557,7 +8599,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -8571,7 +8613,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -8585,7 +8627,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -8599,7 +8641,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -8613,7 +8655,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -8627,7 +8669,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -8641,7 +8683,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -8655,7 +8697,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -8669,7 +8711,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -8683,7 +8725,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -8697,7 +8739,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -8711,7 +8753,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -8725,7 +8767,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -8739,7 +8781,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -8753,7 +8795,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -8767,7 +8809,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -8781,7 +8823,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -8795,7 +8837,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -8809,7 +8851,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -8823,7 +8865,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -8837,7 +8879,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -8851,7 +8893,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -8865,7 +8907,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -8879,7 +8921,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -8893,7 +8935,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -8907,7 +8949,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -8921,7 +8963,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -8935,7 +8977,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -8949,7 +8991,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -8963,7 +9005,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -8977,7 +9019,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -8991,7 +9033,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -9005,7 +9047,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -9019,7 +9061,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -9033,7 +9075,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -9047,7 +9089,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -9071,13 +9113,13 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.69921875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1473</v>
       </c>
@@ -9097,7 +9139,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1474</v>
       </c>
@@ -9117,7 +9159,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1474</v>
       </c>
@@ -9137,7 +9179,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1475</v>
       </c>
@@ -9157,7 +9199,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1475</v>
       </c>
@@ -9177,7 +9219,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1475</v>
       </c>
@@ -9197,7 +9239,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1474</v>
       </c>
@@ -9217,7 +9259,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1474</v>
       </c>
@@ -9237,7 +9279,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1475</v>
       </c>
@@ -9257,7 +9299,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1475</v>
       </c>
@@ -9277,7 +9319,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1475</v>
       </c>
@@ -9297,7 +9339,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1474</v>
       </c>
@@ -9317,7 +9359,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1474</v>
       </c>
@@ -9337,7 +9379,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1475</v>
       </c>
@@ -9357,7 +9399,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1475</v>
       </c>
@@ -9377,7 +9419,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1475</v>
       </c>
@@ -9410,13 +9452,13 @@
       <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.69921875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9430,7 +9472,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9444,7 +9486,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9458,7 +9500,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9472,7 +9514,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9486,7 +9528,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -9500,7 +9542,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -9514,7 +9556,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -9528,7 +9570,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -9542,7 +9584,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -9556,7 +9598,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -9570,7 +9612,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -9584,7 +9626,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -9598,7 +9640,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -9612,7 +9654,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -9626,7 +9668,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -9640,7 +9682,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -9654,7 +9696,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -9668,7 +9710,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -9682,7 +9724,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -9696,7 +9738,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -9710,7 +9752,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -9724,7 +9766,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -9738,7 +9780,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -9752,7 +9794,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -9766,7 +9808,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -9780,7 +9822,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -9794,7 +9836,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -9808,7 +9850,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -9822,7 +9864,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -9836,7 +9878,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -9850,7 +9892,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -9864,7 +9906,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -9878,7 +9920,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -9892,7 +9934,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -9906,7 +9948,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -9920,7 +9962,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -9934,7 +9976,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -9948,7 +9990,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -9962,7 +10004,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -9976,7 +10018,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -9990,7 +10032,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -10004,7 +10046,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -10018,7 +10060,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -10032,7 +10074,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -10046,7 +10088,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -10060,7 +10102,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -10074,7 +10116,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -10088,7 +10130,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -10102,7 +10144,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -10116,7 +10158,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -10130,7 +10172,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -10144,7 +10186,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -10158,7 +10200,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -10172,7 +10214,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -10186,7 +10228,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -10200,7 +10242,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -10214,7 +10256,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -10228,7 +10270,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -10242,7 +10284,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -10256,7 +10298,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -10270,7 +10312,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -10284,7 +10326,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -10298,7 +10340,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -10312,7 +10354,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -10326,7 +10368,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -10340,7 +10382,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -10354,7 +10396,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -10368,7 +10410,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -10382,7 +10424,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -10396,7 +10438,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -10410,7 +10452,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -10424,7 +10466,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -10438,7 +10480,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -10452,7 +10494,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -10466,7 +10508,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -10480,7 +10522,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -10494,7 +10536,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -10508,7 +10550,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -10522,7 +10564,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -10536,7 +10578,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -10550,7 +10592,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -10564,7 +10606,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -10578,7 +10620,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -10592,7 +10634,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -10606,7 +10648,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -10620,7 +10662,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -10634,7 +10676,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -10648,7 +10690,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -10662,7 +10704,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -10676,7 +10718,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -10690,7 +10732,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -10704,7 +10746,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -10718,7 +10760,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -10732,7 +10774,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -10746,7 +10788,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -10760,7 +10802,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -10774,7 +10816,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -10788,7 +10830,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -10802,7 +10844,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -10816,7 +10858,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -10830,7 +10872,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -10844,7 +10886,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -10858,7 +10900,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -10872,7 +10914,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -10886,7 +10928,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -10900,7 +10942,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -10914,7 +10956,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -10928,7 +10970,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -10942,7 +10984,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -10956,7 +10998,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -10970,7 +11012,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -10984,7 +11026,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -10998,7 +11040,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -11012,7 +11054,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -11026,7 +11068,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -11040,7 +11082,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -11054,7 +11096,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -11068,7 +11110,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -11082,7 +11124,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -11096,7 +11138,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -11110,7 +11152,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -11124,7 +11166,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -11138,7 +11180,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -11152,7 +11194,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -11166,7 +11208,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -11180,7 +11222,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -11194,7 +11236,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -11208,7 +11250,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -11222,7 +11264,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -11236,7 +11278,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -11250,7 +11292,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -11264,7 +11306,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -11278,7 +11320,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -11292,7 +11334,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -11306,7 +11348,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -11320,7 +11362,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -11334,7 +11376,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -11348,7 +11390,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -11362,7 +11404,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -11376,7 +11418,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -11390,7 +11432,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -11404,7 +11446,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -11418,7 +11460,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -11432,7 +11474,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -11446,7 +11488,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -11460,7 +11502,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -11474,7 +11516,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -11488,7 +11530,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -11502,7 +11544,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -11516,7 +11558,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -11530,7 +11572,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -11544,7 +11586,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -11558,7 +11600,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -11572,7 +11614,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -11586,7 +11628,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -11600,7 +11642,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -11614,7 +11656,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -11628,7 +11670,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -11642,7 +11684,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -11656,7 +11698,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -11670,7 +11712,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -11684,7 +11726,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -11698,7 +11740,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -11712,7 +11754,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -11726,7 +11768,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -11740,7 +11782,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -11754,7 +11796,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -11768,7 +11810,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -11782,7 +11824,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -11796,7 +11838,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -11810,7 +11852,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -11824,7 +11866,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -11838,7 +11880,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -11852,7 +11894,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -11866,7 +11908,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -11880,7 +11922,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -11894,7 +11936,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -11908,7 +11950,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -11922,7 +11964,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -11936,7 +11978,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -11950,7 +11992,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -11964,7 +12006,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -11978,7 +12020,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -11992,7 +12034,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -12006,7 +12048,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -12020,7 +12062,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -12034,7 +12076,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -12048,7 +12090,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -12062,7 +12104,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -12076,7 +12118,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -12090,7 +12132,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -12104,7 +12146,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -12118,7 +12160,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -12132,7 +12174,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -12146,7 +12188,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -12160,7 +12202,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -12174,7 +12216,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -12188,7 +12230,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -12202,7 +12244,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -12216,7 +12258,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -12230,7 +12272,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -12244,7 +12286,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -12258,7 +12300,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -12272,7 +12314,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -12286,7 +12328,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -12300,7 +12342,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -12314,7 +12356,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -12328,7 +12370,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -12342,7 +12384,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -12356,7 +12398,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -12370,7 +12412,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -12384,7 +12426,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -12398,7 +12440,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -12412,7 +12454,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -12426,7 +12468,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -12440,7 +12482,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -12454,7 +12496,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -12468,7 +12510,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -12482,7 +12524,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -12496,7 +12538,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -12510,7 +12552,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -12524,7 +12566,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -12538,7 +12580,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -12552,7 +12594,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -12566,7 +12608,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -12580,7 +12622,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -12594,7 +12636,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -12608,7 +12650,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -12622,7 +12664,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -12636,7 +12678,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -12650,7 +12692,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -12664,7 +12706,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -12678,7 +12720,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -12692,7 +12734,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -12706,7 +12748,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -12720,7 +12762,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -12734,7 +12776,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -12748,7 +12790,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -12762,7 +12804,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -12776,7 +12818,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -12790,7 +12832,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -12804,7 +12846,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -12818,7 +12860,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -12832,7 +12874,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -12846,7 +12888,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -12860,7 +12902,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -12874,7 +12916,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -12888,7 +12930,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -12902,7 +12944,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -12916,7 +12958,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -12930,7 +12972,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -12944,7 +12986,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -12958,7 +13000,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -12972,7 +13014,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -12986,7 +13028,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -13000,7 +13042,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -13014,7 +13056,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -13028,7 +13070,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -13042,7 +13084,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -13056,7 +13098,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -13070,7 +13112,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -13084,7 +13126,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -13098,7 +13140,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -13112,7 +13154,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -13126,7 +13168,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -13140,7 +13182,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -13154,7 +13196,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -13168,7 +13210,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -13182,7 +13224,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -13196,7 +13238,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -13210,7 +13252,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -13224,7 +13266,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -13238,7 +13280,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -13252,7 +13294,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -13266,7 +13308,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -13280,7 +13322,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -13294,7 +13336,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -13308,7 +13350,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -13322,7 +13364,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -13336,7 +13378,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -13350,7 +13392,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -13364,7 +13406,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -13378,7 +13420,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -13392,7 +13434,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -13406,7 +13448,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -13420,7 +13462,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -13434,7 +13476,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -13448,7 +13490,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -13462,7 +13504,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -13476,7 +13518,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -13490,7 +13532,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -13504,7 +13546,7 @@
         <v>787</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -13518,7 +13560,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -13532,7 +13574,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -13546,7 +13588,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -13560,7 +13602,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -13574,7 +13616,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -13588,7 +13630,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -13602,7 +13644,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -13616,7 +13658,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -13630,7 +13672,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -13657,13 +13699,13 @@
       <selection activeCell="F1" sqref="F1:F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.69921875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1473</v>
       </c>
@@ -13683,7 +13725,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1474</v>
       </c>
@@ -13703,7 +13745,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1474</v>
       </c>
@@ -13723,7 +13765,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1475</v>
       </c>
@@ -13743,7 +13785,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1475</v>
       </c>
@@ -13763,7 +13805,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1475</v>
       </c>
@@ -13783,7 +13825,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1474</v>
       </c>
@@ -13803,7 +13845,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1474</v>
       </c>
@@ -13823,7 +13865,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1475</v>
       </c>
@@ -13843,7 +13885,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1475</v>
       </c>
@@ -13863,7 +13905,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1475</v>
       </c>
@@ -13883,7 +13925,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1474</v>
       </c>
@@ -13903,7 +13945,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1474</v>
       </c>
@@ -13923,7 +13965,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1475</v>
       </c>
@@ -13943,7 +13985,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1475</v>
       </c>
@@ -13963,7 +14005,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1475</v>
       </c>
@@ -13996,13 +14038,13 @@
       <selection activeCell="A6" sqref="A6:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="15.69921875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.796875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14016,7 +14058,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -14030,7 +14072,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -14044,7 +14086,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14058,7 +14100,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -14072,7 +14114,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -14086,7 +14128,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -14100,7 +14142,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -14114,7 +14156,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -14128,7 +14170,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -14142,7 +14184,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -14156,7 +14198,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -14170,7 +14212,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -14184,7 +14226,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -14198,7 +14240,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -14212,7 +14254,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -14226,7 +14268,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -14240,7 +14282,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -14254,7 +14296,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -14268,7 +14310,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -14282,7 +14324,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -14296,7 +14338,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -14310,7 +14352,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -14324,7 +14366,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -14338,7 +14380,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -14352,7 +14394,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -14366,7 +14408,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -14380,7 +14422,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -14394,7 +14436,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -14408,7 +14450,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -14422,7 +14464,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -14436,7 +14478,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -14450,7 +14492,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -14464,7 +14506,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -14478,7 +14520,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -14492,7 +14534,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -14506,7 +14548,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -14520,7 +14562,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -14534,7 +14576,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -14548,7 +14590,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -14562,7 +14604,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -14576,7 +14618,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -14590,7 +14632,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -14604,7 +14646,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -14618,7 +14660,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -14632,7 +14674,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -14646,7 +14688,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -14660,7 +14702,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -14674,7 +14716,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -14688,7 +14730,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -14702,7 +14744,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -14716,7 +14758,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -14730,7 +14772,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -14744,7 +14786,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -14758,7 +14800,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -14772,7 +14814,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -14786,7 +14828,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -14800,7 +14842,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -14814,7 +14856,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -14828,7 +14870,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -14842,7 +14884,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -14856,7 +14898,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -14870,7 +14912,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -14884,7 +14926,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -14898,7 +14940,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -14912,7 +14954,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -14926,7 +14968,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -14940,7 +14982,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -14954,7 +14996,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -14968,7 +15010,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -14982,7 +15024,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -14996,7 +15038,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -15010,7 +15052,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -15024,7 +15066,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -15038,7 +15080,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -15052,7 +15094,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -15066,7 +15108,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -15080,7 +15122,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -15094,7 +15136,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -15108,7 +15150,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -15122,7 +15164,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -15136,7 +15178,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -15150,7 +15192,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -15164,7 +15206,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -15178,7 +15220,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -15192,7 +15234,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -15206,7 +15248,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -15220,7 +15262,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -15234,7 +15276,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -15248,7 +15290,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -15262,7 +15304,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -15276,7 +15318,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -15290,7 +15332,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -15304,7 +15346,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -15318,7 +15360,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -15332,7 +15374,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -15346,7 +15388,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -15360,7 +15402,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -15374,7 +15416,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>98</v>
       </c>
@@ -15388,7 +15430,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>99</v>
       </c>
@@ -15402,7 +15444,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>100</v>
       </c>
@@ -15416,7 +15458,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>101</v>
       </c>
@@ -15430,7 +15472,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -15444,7 +15486,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>103</v>
       </c>
@@ -15458,7 +15500,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>104</v>
       </c>
@@ -15472,7 +15514,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>105</v>
       </c>
@@ -15486,7 +15528,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>106</v>
       </c>
@@ -15500,7 +15542,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>107</v>
       </c>
@@ -15514,7 +15556,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>108</v>
       </c>
@@ -15528,7 +15570,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>109</v>
       </c>
@@ -15542,7 +15584,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>110</v>
       </c>
@@ -15556,7 +15598,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>111</v>
       </c>
@@ -15570,7 +15612,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>112</v>
       </c>
@@ -15584,7 +15626,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>113</v>
       </c>
@@ -15598,7 +15640,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>114</v>
       </c>
@@ -15612,7 +15654,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>115</v>
       </c>
@@ -15626,7 +15668,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>116</v>
       </c>
@@ -15640,7 +15682,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>117</v>
       </c>
@@ -15654,7 +15696,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>118</v>
       </c>
@@ -15668,7 +15710,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>119</v>
       </c>
@@ -15682,7 +15724,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -15696,7 +15738,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>121</v>
       </c>
@@ -15710,7 +15752,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>122</v>
       </c>
@@ -15724,7 +15766,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>123</v>
       </c>
@@ -15738,7 +15780,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>124</v>
       </c>
@@ -15752,7 +15794,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>125</v>
       </c>
@@ -15766,7 +15808,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>126</v>
       </c>
@@ -15780,7 +15822,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>127</v>
       </c>
@@ -15794,7 +15836,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>128</v>
       </c>
@@ -15808,7 +15850,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>129</v>
       </c>
@@ -15822,7 +15864,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>130</v>
       </c>
@@ -15836,7 +15878,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>131</v>
       </c>
@@ -15850,7 +15892,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>132</v>
       </c>
@@ -15864,7 +15906,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>133</v>
       </c>
@@ -15878,7 +15920,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>134</v>
       </c>
@@ -15892,7 +15934,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>135</v>
       </c>
@@ -15906,7 +15948,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>136</v>
       </c>
@@ -15920,7 +15962,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>137</v>
       </c>
@@ -15934,7 +15976,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>138</v>
       </c>
@@ -15948,7 +15990,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>139</v>
       </c>
@@ -15962,7 +16004,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>140</v>
       </c>
@@ -15976,7 +16018,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>141</v>
       </c>
@@ -15990,7 +16032,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>142</v>
       </c>
@@ -16004,7 +16046,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>143</v>
       </c>
@@ -16018,7 +16060,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>144</v>
       </c>
@@ -16032,7 +16074,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>145</v>
       </c>
@@ -16046,7 +16088,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>146</v>
       </c>
@@ -16060,7 +16102,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>147</v>
       </c>
@@ -16074,7 +16116,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>148</v>
       </c>
@@ -16088,7 +16130,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>149</v>
       </c>
@@ -16102,7 +16144,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>150</v>
       </c>
@@ -16116,7 +16158,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>151</v>
       </c>
@@ -16130,7 +16172,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>152</v>
       </c>
@@ -16144,7 +16186,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>153</v>
       </c>
@@ -16158,7 +16200,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>154</v>
       </c>
@@ -16172,7 +16214,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>155</v>
       </c>
@@ -16186,7 +16228,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>156</v>
       </c>
@@ -16200,7 +16242,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>157</v>
       </c>
@@ -16214,7 +16256,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>158</v>
       </c>
@@ -16228,7 +16270,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>159</v>
       </c>
@@ -16242,7 +16284,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>160</v>
       </c>
@@ -16256,7 +16298,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -16270,7 +16312,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>162</v>
       </c>
@@ -16284,7 +16326,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>163</v>
       </c>
@@ -16298,7 +16340,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>164</v>
       </c>
@@ -16312,7 +16354,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>165</v>
       </c>
@@ -16326,7 +16368,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>166</v>
       </c>
@@ -16340,7 +16382,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>167</v>
       </c>
@@ -16354,7 +16396,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>168</v>
       </c>
@@ -16368,7 +16410,7 @@
         <v>838</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>169</v>
       </c>
@@ -16382,7 +16424,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>170</v>
       </c>
@@ -16396,7 +16438,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>171</v>
       </c>
@@ -16410,7 +16452,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>172</v>
       </c>
@@ -16424,7 +16466,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>173</v>
       </c>
@@ -16438,7 +16480,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>174</v>
       </c>
@@ -16452,7 +16494,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>175</v>
       </c>
@@ -16466,7 +16508,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>176</v>
       </c>
@@ -16480,7 +16522,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>177</v>
       </c>
@@ -16494,7 +16536,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>178</v>
       </c>
@@ -16508,7 +16550,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>179</v>
       </c>
@@ -16522,7 +16564,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>180</v>
       </c>
@@ -16536,7 +16578,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>181</v>
       </c>
@@ -16550,7 +16592,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>182</v>
       </c>
@@ -16564,7 +16606,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>183</v>
       </c>
@@ -16578,7 +16620,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>184</v>
       </c>
@@ -16592,7 +16634,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>185</v>
       </c>
@@ -16606,7 +16648,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>186</v>
       </c>
@@ -16620,7 +16662,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>187</v>
       </c>
@@ -16634,7 +16676,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>188</v>
       </c>
@@ -16648,7 +16690,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>189</v>
       </c>
@@ -16662,7 +16704,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>190</v>
       </c>
@@ -16676,7 +16718,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>191</v>
       </c>
@@ -16690,7 +16732,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>192</v>
       </c>
@@ -16704,7 +16746,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>193</v>
       </c>
@@ -16718,7 +16760,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>194</v>
       </c>
@@ -16732,7 +16774,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>195</v>
       </c>
@@ -16746,7 +16788,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -16760,7 +16802,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>197</v>
       </c>
@@ -16774,7 +16816,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>198</v>
       </c>
@@ -16788,7 +16830,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>199</v>
       </c>
@@ -16802,7 +16844,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>200</v>
       </c>
@@ -16816,7 +16858,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>201</v>
       </c>
@@ -16830,7 +16872,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>202</v>
       </c>
@@ -16844,7 +16886,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>203</v>
       </c>
@@ -16858,7 +16900,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -16872,7 +16914,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>205</v>
       </c>
@@ -16886,7 +16928,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>206</v>
       </c>
@@ -16900,7 +16942,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>207</v>
       </c>
@@ -16914,7 +16956,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>208</v>
       </c>
@@ -16928,7 +16970,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>209</v>
       </c>
@@ -16942,7 +16984,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>210</v>
       </c>
@@ -16956,7 +16998,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>211</v>
       </c>
@@ -16970,7 +17012,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>212</v>
       </c>
@@ -16984,7 +17026,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>213</v>
       </c>
@@ -16998,7 +17040,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>214</v>
       </c>
@@ -17012,7 +17054,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>215</v>
       </c>
@@ -17026,7 +17068,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>216</v>
       </c>
@@ -17040,7 +17082,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>217</v>
       </c>
@@ -17054,7 +17096,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>218</v>
       </c>
@@ -17068,7 +17110,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>219</v>
       </c>
@@ -17082,7 +17124,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>220</v>
       </c>
@@ -17096,7 +17138,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>221</v>
       </c>
@@ -17110,7 +17152,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>222</v>
       </c>
@@ -17124,7 +17166,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>223</v>
       </c>
@@ -17138,7 +17180,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>224</v>
       </c>
@@ -17152,7 +17194,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>225</v>
       </c>
@@ -17166,7 +17208,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>226</v>
       </c>
@@ -17180,7 +17222,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>227</v>
       </c>
@@ -17194,7 +17236,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>228</v>
       </c>
@@ -17208,7 +17250,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>229</v>
       </c>
@@ -17222,7 +17264,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>230</v>
       </c>
@@ -17236,7 +17278,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>231</v>
       </c>
@@ -17250,7 +17292,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>232</v>
       </c>
@@ -17264,7 +17306,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>233</v>
       </c>
@@ -17278,7 +17320,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>234</v>
       </c>
@@ -17292,7 +17334,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>235</v>
       </c>
@@ -17306,7 +17348,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>236</v>
       </c>
@@ -17320,7 +17362,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>237</v>
       </c>
@@ -17334,7 +17376,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>238</v>
       </c>
@@ -17348,7 +17390,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>239</v>
       </c>
@@ -17362,7 +17404,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>240</v>
       </c>
@@ -17376,7 +17418,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>241</v>
       </c>
@@ -17390,7 +17432,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>242</v>
       </c>
@@ -17404,7 +17446,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>243</v>
       </c>
@@ -17418,7 +17460,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>244</v>
       </c>
@@ -17432,7 +17474,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>245</v>
       </c>
@@ -17446,7 +17488,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>246</v>
       </c>
@@ -17460,7 +17502,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>247</v>
       </c>
@@ -17474,7 +17516,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>248</v>
       </c>
@@ -17488,7 +17530,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>249</v>
       </c>
@@ -17502,7 +17544,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>250</v>
       </c>
@@ -17516,7 +17558,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>251</v>
       </c>
@@ -17530,7 +17572,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>252</v>
       </c>
@@ -17544,7 +17586,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>253</v>
       </c>
@@ -17558,7 +17600,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>254</v>
       </c>
@@ -17572,7 +17614,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>255</v>
       </c>
@@ -17586,7 +17628,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>256</v>
       </c>
@@ -17600,7 +17642,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>257</v>
       </c>
@@ -17614,7 +17656,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>258</v>
       </c>
@@ -17628,7 +17670,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>259</v>
       </c>
@@ -17642,7 +17684,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>260</v>
       </c>
@@ -17656,7 +17698,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>261</v>
       </c>
@@ -17670,7 +17712,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>262</v>
       </c>
@@ -17684,7 +17726,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>263</v>
       </c>
@@ -17698,7 +17740,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>264</v>
       </c>
@@ -17712,7 +17754,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>265</v>
       </c>
@@ -17726,7 +17768,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>266</v>
       </c>
@@ -17740,7 +17782,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>267</v>
       </c>
@@ -17754,7 +17796,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>268</v>
       </c>
@@ -17768,7 +17810,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>269</v>
       </c>
@@ -17782,7 +17824,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>270</v>
       </c>
@@ -17796,7 +17838,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>271</v>
       </c>
@@ -17810,7 +17852,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>272</v>
       </c>
@@ -17824,7 +17866,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>273</v>
       </c>
@@ -17838,7 +17880,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>274</v>
       </c>
@@ -17852,7 +17894,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>275</v>
       </c>
@@ -17866,7 +17908,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>276</v>
       </c>
@@ -17880,7 +17922,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>277</v>
       </c>
@@ -17894,7 +17936,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>278</v>
       </c>
@@ -17908,7 +17950,7 @@
         <v>869</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>279</v>
       </c>
@@ -17922,7 +17964,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>280</v>
       </c>
@@ -17936,7 +17978,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>281</v>
       </c>
@@ -17950,7 +17992,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>282</v>
       </c>
@@ -17964,7 +18006,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>283</v>
       </c>
@@ -17978,7 +18020,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>284</v>
       </c>
@@ -17992,7 +18034,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>285</v>
       </c>
@@ -18006,7 +18048,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>286</v>
       </c>
@@ -18020,7 +18062,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>287</v>
       </c>
@@ -18034,7 +18076,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>288</v>
       </c>
@@ -18048,7 +18090,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>289</v>
       </c>
@@ -18062,7 +18104,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>290</v>
       </c>
@@ -18076,7 +18118,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>291</v>
       </c>
@@ -18090,7 +18132,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>292</v>
       </c>
@@ -18104,7 +18146,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>293</v>
       </c>
@@ -18118,7 +18160,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>294</v>
       </c>
@@ -18132,7 +18174,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>295</v>
       </c>
@@ -18146,7 +18188,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>296</v>
       </c>
@@ -18160,7 +18202,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>297</v>
       </c>
@@ -18174,7 +18216,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>298</v>
       </c>
@@ -18188,7 +18230,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>299</v>
       </c>
@@ -18202,7 +18244,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>300</v>
       </c>
@@ -18216,7 +18258,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>301</v>
       </c>
@@ -18236,20 +18278,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C30F00C-C683-0548-B7C4-02FB1EBCAEF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F091D5-1DFF-4587-8943-10FAE4FCEA55}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="15.69921875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1473</v>
       </c>
@@ -18269,7 +18312,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1474</v>
       </c>
@@ -18285,11 +18328,11 @@
       <c r="E2" t="s">
         <v>305</v>
       </c>
-      <c r="F2" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F2" t="s" s="1">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1474</v>
       </c>
@@ -18305,11 +18348,11 @@
       <c r="E3" t="s">
         <v>725</v>
       </c>
-      <c r="F3" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F3" t="s" s="2">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1475</v>
       </c>
@@ -18325,11 +18368,11 @@
       <c r="E4" t="s">
         <v>307</v>
       </c>
-      <c r="F4" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4" t="s" s="3">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1475</v>
       </c>
@@ -18345,11 +18388,11 @@
       <c r="E5" t="s">
         <v>610</v>
       </c>
-      <c r="F5" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F5" t="s" s="4">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1475</v>
       </c>
@@ -18365,11 +18408,11 @@
       <c r="E6" t="s">
         <v>1021</v>
       </c>
-      <c r="F6" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" t="s" s="5">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1474</v>
       </c>
@@ -18385,11 +18428,11 @@
       <c r="E7" t="s">
         <v>1274</v>
       </c>
-      <c r="F7" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F7" t="s" s="6">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1474</v>
       </c>
@@ -18405,11 +18448,11 @@
       <c r="E8" t="s">
         <v>337</v>
       </c>
-      <c r="F8" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F8" t="s" s="7">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1475</v>
       </c>
@@ -18425,11 +18468,11 @@
       <c r="E9" t="s">
         <v>796</v>
       </c>
-      <c r="F9" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F9" t="s" s="8">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>1475</v>
       </c>
@@ -18445,11 +18488,11 @@
       <c r="E10" t="s">
         <v>644</v>
       </c>
-      <c r="F10" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" t="s" s="9">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>1475</v>
       </c>
@@ -18465,11 +18508,11 @@
       <c r="E11" t="s">
         <v>586</v>
       </c>
-      <c r="F11" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11" t="s" s="10">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>1474</v>
       </c>
@@ -18485,11 +18528,11 @@
       <c r="E12" t="s">
         <v>1375</v>
       </c>
-      <c r="F12" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" t="s" s="11">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>1474</v>
       </c>
@@ -18505,11 +18548,11 @@
       <c r="E13" t="s">
         <v>1001</v>
       </c>
-      <c r="F13" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F13" t="s" s="12">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1475</v>
       </c>
@@ -18525,11 +18568,11 @@
       <c r="E14" t="s">
         <v>1378</v>
       </c>
-      <c r="F14" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F14" t="s" s="13">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>1475</v>
       </c>
@@ -18545,11 +18588,11 @@
       <c r="E15" t="s">
         <v>1379</v>
       </c>
-      <c r="F15" t="s">
-        <v>1477</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F15" t="s" s="14">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1475</v>
       </c>
@@ -18565,8 +18608,8 @@
       <c r="E16" t="s">
         <v>1381</v>
       </c>
-      <c r="F16" t="s">
-        <v>1477</v>
+      <c r="F16" t="s" s="15">
+        <v>1479</v>
       </c>
     </row>
   </sheetData>
